--- a/JenkinsGithubBuild.xlsx
+++ b/JenkinsGithubBuild.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00Learning\GithubSukuang2020\Jenkins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00Learning\GithubSukuang2020\MemoAndGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23E93E-45BD-43F3-9689-D5820E331486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F07AE-FE3B-4435-95DC-EEC46C98438D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="25105" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="自动Build" sheetId="1" r:id="rId1"/>
+    <sheet name="自动部署" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>http://blog.csdn.net/boling_cavalry/article/details/78943061</t>
   </si>
@@ -75,6 +76,69 @@
       <t>将war自动部署到远程Tomcat服务器</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/github-webhook/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接上一个sheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>发布.war包到本地tomcat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)找到tomcat的tomcat_users.xml配置文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)在文件中添加以下代码：(此处为tomcat的用户名密码，在jenkins配置中会用到)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;role rolename="manager-gui"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;role rolename="manager-script"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;role rolename="manager-jmx"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;role rolename="manager-status"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;user username="user" password="123456" roles="manager-gui,manager-script,manager-jmx,manager-status"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jenkins安装插件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在jenkins“系统管理”的“管理插件”中安装“Deploy to container Plugin”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在项目的“构建后操作”中增加“Deploy war/ear to container”,配置如下图：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAR/EAR files:相对于工作区间的想要部署的war路径,比如下图所示，所以应该是  target\WebApp4JenkinsDemo-0.0.1-SNAPSHOT.war</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Context path：Tomcat发布的项目名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebApp4JenkinsDemo-0.0.1-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -985,6 +1049,116 @@
         <a:xfrm>
           <a:off x="8971472" y="95770460"/>
           <a:ext cx="10314286" cy="3142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>534838</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C104D30D-4684-414D-878F-6D220CFFCD29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="690113" y="3364302"/>
+          <a:ext cx="8816196" cy="3295290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>646849</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483CBE2C-E912-4339-B67E-090880289213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1380226" y="6952891"/>
+          <a:ext cx="8238095" cy="3895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1273,6 +1447,11 @@
     <row r="2" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O58" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="15:15" x14ac:dyDescent="0.4">
@@ -1310,4 +1489,92 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD4E5F2-2306-465E-8F5E-2CA45B76CEE4}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>